--- a/biology/Médecine/Échelle_de_dépression_de_Montgomery_et_Åsberg/Échelle_de_dépression_de_Montgomery_et_Åsberg.xlsx
+++ b/biology/Médecine/Échelle_de_dépression_de_Montgomery_et_Åsberg/Échelle_de_dépression_de_Montgomery_et_Åsberg.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_d%C3%A9pression_de_Montgomery_et_%C3%85sberg</t>
+          <t>Échelle_de_dépression_de_Montgomery_et_Åsberg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'échelle de dépression de Montgomery et Åsberg (MADRS pour Montgomery-Åsberg Depression Rating Scale) est un questionnaire diagnostique à 10 éléments utilisé pour évaluer la sévérité de la dépression chez des patients souffrant de troubles de l'humeur. Elle a été conçue en 1979 par Stuart Montgomery et Marie Åsberg (sv) comme un complément à l'échelle de dépression de Hamilton qui serait plus sensible aux effets des antidépresseurs et autres traitements[1]. Une forte corrélation entre les résultats des deux échelles a cependant été démontrée[2]. Une version auto-évaluée est souvent utilisée par les médecins, avec des résultats proches de ceux obtenus par les praticiens[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle de dépression de Montgomery et Åsberg (MADRS pour Montgomery-Åsberg Depression Rating Scale) est un questionnaire diagnostique à 10 éléments utilisé pour évaluer la sévérité de la dépression chez des patients souffrant de troubles de l'humeur. Elle a été conçue en 1979 par Stuart Montgomery et Marie Åsberg (sv) comme un complément à l'échelle de dépression de Hamilton qui serait plus sensible aux effets des antidépresseurs et autres traitements. Une forte corrélation entre les résultats des deux échelles a cependant été démontrée. Une version auto-évaluée est souvent utilisée par les médecins, avec des résultats proches de ceux obtenus par les praticiens.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_d%C3%A9pression_de_Montgomery_et_%C3%85sberg</t>
+          <t>Échelle_de_dépression_de_Montgomery_et_Åsberg</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Interprétation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Plus le score est élevé, plus la dépression est sévère. Le score peut aller de 0 à 60.
-Les sous-groupes couramment utilisés sont[4] :
+Les sous-groupes couramment utilisés sont :
 de 0 à 6 points : patient sain
 de 7 à 19 points : dépression légère
 de 20 à 34 points : dépression moyenne
